--- a/data/sysml2/21/result/AffectedElement.xlsx
+++ b/data/sysml2/21/result/AffectedElement.xlsx
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>177</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -3800,7 +3800,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>177</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
